--- a/inst/extdata/CopyOfData/woodToDumps.xlsx
+++ b/inst/extdata/CopyOfData/woodToDumps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="0" windowWidth="25040" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1820" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,27 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Wood to dumps</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,766 +395,1224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A151"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>1900</v>
+      </c>
+      <c r="B2">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>1901</v>
+      </c>
+      <c r="B3">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>1902</v>
+      </c>
+      <c r="B4">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>1903</v>
+      </c>
+      <c r="B5">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>1904</v>
+      </c>
+      <c r="B6">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>1905</v>
+      </c>
+      <c r="B7">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>1906</v>
+      </c>
+      <c r="B8">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>1907</v>
+      </c>
+      <c r="B9">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>1908</v>
+      </c>
+      <c r="B10">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>1909</v>
+      </c>
+      <c r="B11">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>1910</v>
+      </c>
+      <c r="B12">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>1911</v>
+      </c>
+      <c r="B13">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>1912</v>
+      </c>
+      <c r="B14">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>1913</v>
+      </c>
+      <c r="B15">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>1914</v>
+      </c>
+      <c r="B16">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>1915</v>
+      </c>
+      <c r="B17">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>1916</v>
+      </c>
+      <c r="B18">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>1917</v>
+      </c>
+      <c r="B19">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>1918</v>
+      </c>
+      <c r="B20">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>1919</v>
+      </c>
+      <c r="B21">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>1920</v>
+      </c>
+      <c r="B22">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>1921</v>
+      </c>
+      <c r="B23">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>1922</v>
+      </c>
+      <c r="B24">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.17000000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>1923</v>
+      </c>
+      <c r="B25">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
+        <v>1924</v>
+      </c>
+      <c r="B26">
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1925</v>
+      </c>
+      <c r="B27">
         <v>0.18277601250819586</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1926</v>
+      </c>
+      <c r="B28">
         <v>0.1955520250163918</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1927</v>
+      </c>
+      <c r="B29">
         <v>0.20832803752458773</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1928</v>
+      </c>
+      <c r="B30">
         <v>0.22110405003278355</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1929</v>
+      </c>
+      <c r="B31">
         <v>0.23388006254097948</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1930</v>
+      </c>
+      <c r="B32">
         <v>0.24665607504917536</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1931</v>
+      </c>
+      <c r="B33">
         <v>0.25943208755737124</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1932</v>
+      </c>
+      <c r="B34">
         <v>0.27220810006556717</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1933</v>
+      </c>
+      <c r="B35">
         <v>0.28498411257376305</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1934</v>
+      </c>
+      <c r="B36">
         <v>0.29776012508195893</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1935</v>
+      </c>
+      <c r="B37">
         <v>0.3074307762142533</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1936</v>
+      </c>
+      <c r="B38">
         <v>0.31808110958445013</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1937</v>
+      </c>
+      <c r="B39">
         <v>0.3285735433007575</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1938</v>
+      </c>
+      <c r="B40">
         <v>0.33890807736317552</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1939</v>
+      </c>
+      <c r="B41">
         <v>0.34908471177170397</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1940</v>
+      </c>
+      <c r="B42">
         <v>0.35910344652634307</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1941</v>
+      </c>
+      <c r="B43">
         <v>0.36896428162709272</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1942</v>
+      </c>
+      <c r="B44">
         <v>0.37866721707395279</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1943</v>
+      </c>
+      <c r="B45">
         <v>0.38821225286692357</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1944</v>
+      </c>
+      <c r="B46">
         <v>0.39759938900600489</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1945</v>
+      </c>
+      <c r="B47">
         <v>0.40682862549119664</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1946</v>
+      </c>
+      <c r="B48">
         <v>0.41589996232249904</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1947</v>
+      </c>
+      <c r="B49">
         <v>0.42481339949991193</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1948</v>
+      </c>
+      <c r="B50">
         <v>0.43356893702343546</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>1949</v>
+      </c>
+      <c r="B51">
         <v>0.44216657489306954</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>1950</v>
+      </c>
+      <c r="B52">
         <v>0.45060631310881405</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>1951</v>
+      </c>
+      <c r="B53">
         <v>0.45888815167066926</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>1952</v>
+      </c>
+      <c r="B54">
         <v>0.46701209057863502</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>1953</v>
+      </c>
+      <c r="B55">
         <v>0.4749781298327112</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1954</v>
+      </c>
+      <c r="B56">
         <v>0.48278626943289804</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>1955</v>
+      </c>
+      <c r="B57">
         <v>0.49043650937919547</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>1956</v>
+      </c>
+      <c r="B58">
         <v>0.49792884967160334</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>1957</v>
+      </c>
+      <c r="B59">
         <v>0.50526329031012185</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>1958</v>
+      </c>
+      <c r="B60">
         <v>0.5124398312947509</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>1959</v>
+      </c>
+      <c r="B61">
         <v>0.51945847262549039</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>1960</v>
+      </c>
+      <c r="B62">
         <v>0.57951054545413538</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>1961</v>
+      </c>
+      <c r="B63">
         <v>0.58344021284929637</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>1962</v>
+      </c>
+      <c r="B64">
         <v>0.58724744490663117</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>1963</v>
+      </c>
+      <c r="B65">
         <v>0.59093224162613978</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>1964</v>
+      </c>
+      <c r="B66">
         <v>0.59449460300782198</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>1965</v>
+      </c>
+      <c r="B67">
         <v>0.5979345290516781</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>1966</v>
+      </c>
+      <c r="B68">
         <v>0.58505216921755776</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>1967</v>
+      </c>
+      <c r="B69">
         <v>0.57162114344742809</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>1968</v>
+      </c>
+      <c r="B70">
         <v>0.55764145174128921</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>1969</v>
+      </c>
+      <c r="B71">
         <v>0.5431130940991411</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>1970</v>
+      </c>
+      <c r="B72">
         <v>0.52803607052098378</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>1971</v>
+      </c>
+      <c r="B73">
         <v>0.51355478975320235</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>1972</v>
+      </c>
+      <c r="B74">
         <v>0.49842556941011013</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>1973</v>
+      </c>
+      <c r="B75">
         <v>0.48264840949170729</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>1974</v>
+      </c>
+      <c r="B76">
         <v>0.46622330999799366</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>1975</v>
+      </c>
+      <c r="B77">
         <v>0.44915027092896942</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>1976</v>
+      </c>
+      <c r="B78">
         <v>0.43142929228463439</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>1977</v>
+      </c>
+      <c r="B79">
         <v>0.38261892795495939</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>1978</v>
+      </c>
+      <c r="B80">
         <v>0.33234619299502599</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>1979</v>
+      </c>
+      <c r="B81">
         <v>0.2806110874048342</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>1980</v>
+      </c>
+      <c r="B82">
         <v>0.22714743591820885</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>1981</v>
+      </c>
+      <c r="B83">
         <v>0.20406570486441433</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>1982</v>
+      </c>
+      <c r="B84">
         <v>0.18142658032898407</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84">
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>1983</v>
+      </c>
+      <c r="B85">
         <v>0.15923006231191816</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85">
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>1984</v>
+      </c>
+      <c r="B86">
         <v>0.1374761508132164</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86">
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>1985</v>
+      </c>
+      <c r="B87">
         <v>0.116164845832879</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87">
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>1986</v>
+      </c>
+      <c r="B88">
         <v>9.5296147370905748E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88">
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>1987</v>
+      </c>
+      <c r="B89">
         <v>7.4870055427296855E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89">
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>1988</v>
+      </c>
+      <c r="B90">
         <v>5.4886570002052215E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90">
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>1989</v>
+      </c>
+      <c r="B91">
         <v>3.5345691095171827E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91">
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>1990</v>
+      </c>
+      <c r="B92">
         <v>1.5176946087050003E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92">
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>1991</v>
+      </c>
+      <c r="B93">
         <v>1.638197101799177E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93">
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>1992</v>
+      </c>
+      <c r="B94">
         <v>1.490180665345775E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94">
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>1993</v>
+      </c>
+      <c r="B95">
         <v>1.5038645500448089E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95">
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>1994</v>
+      </c>
+      <c r="B96">
         <v>1.5171981073830554E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96">
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>1995</v>
+      </c>
+      <c r="B97">
         <v>1.6135875173913794E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97">
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>1996</v>
+      </c>
+      <c r="B98">
         <v>1.5964798768920985E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98">
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>1997</v>
+      </c>
+      <c r="B99">
         <v>1.5755700352414581E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>1998</v>
+      </c>
+      <c r="B100">
         <v>1.5704130014529638E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100">
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>1999</v>
+      </c>
+      <c r="B101">
         <v>1.5991904005055124E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101">
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>2000</v>
+      </c>
+      <c r="B102">
         <v>1.6119496240730502E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102">
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>2001</v>
+      </c>
+      <c r="B103">
         <v>1.6120503474808867E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103">
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>2002</v>
+      </c>
+      <c r="B104">
         <v>1.6223215880653341E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104">
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>2003</v>
+      </c>
+      <c r="B105">
         <v>1.6061861774879671E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105">
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>2004</v>
+      </c>
+      <c r="B106">
         <v>1.6034937897230317E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:2">
       <c r="A107">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>2005</v>
+      </c>
+      <c r="B107">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>2006</v>
+      </c>
+      <c r="B108">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>2007</v>
+      </c>
+      <c r="B109">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>2008</v>
+      </c>
+      <c r="B110">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>2009</v>
+      </c>
+      <c r="B111">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>2010</v>
+      </c>
+      <c r="B112">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>2011</v>
+      </c>
+      <c r="B113">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>2012</v>
+      </c>
+      <c r="B114">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>2013</v>
+      </c>
+      <c r="B115">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>2014</v>
+      </c>
+      <c r="B116">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>2015</v>
+      </c>
+      <c r="B117">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>2016</v>
+      </c>
+      <c r="B118">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>2017</v>
+      </c>
+      <c r="B119">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>2018</v>
+      </c>
+      <c r="B120">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>2019</v>
+      </c>
+      <c r="B121">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>2020</v>
+      </c>
+      <c r="B122">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>2021</v>
+      </c>
+      <c r="B123">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>2022</v>
+      </c>
+      <c r="B124">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>2023</v>
+      </c>
+      <c r="B125">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>2024</v>
+      </c>
+      <c r="B126">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>2025</v>
+      </c>
+      <c r="B127">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>2026</v>
+      </c>
+      <c r="B128">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>2027</v>
+      </c>
+      <c r="B129">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>2028</v>
+      </c>
+      <c r="B130">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>2029</v>
+      </c>
+      <c r="B131">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>2030</v>
+      </c>
+      <c r="B132">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>2031</v>
+      </c>
+      <c r="B133">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>2032</v>
+      </c>
+      <c r="B134">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>2033</v>
+      </c>
+      <c r="B135">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>2034</v>
+      </c>
+      <c r="B136">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>2035</v>
+      </c>
+      <c r="B137">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>2036</v>
+      </c>
+      <c r="B138">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>2037</v>
+      </c>
+      <c r="B139">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>2038</v>
+      </c>
+      <c r="B140">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>2039</v>
+      </c>
+      <c r="B141">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>2040</v>
+      </c>
+      <c r="B142">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>2041</v>
+      </c>
+      <c r="B143">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>2042</v>
+      </c>
+      <c r="B144">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>2043</v>
+      </c>
+      <c r="B145">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>2044</v>
+      </c>
+      <c r="B146">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>2045</v>
+      </c>
+      <c r="B147">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>2046</v>
+      </c>
+      <c r="B148">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>2047</v>
+      </c>
+      <c r="B149">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150">
-        <v>1.6058438717264978E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>2048</v>
+      </c>
+      <c r="B150">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151">
+        <v>2049</v>
+      </c>
+      <c r="B151">
+        <v>1.6058438717264978E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>2050</v>
+      </c>
+      <c r="B152">
         <v>1.8258161434292264E-2</v>
       </c>
     </row>
